--- a/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S Nandikurali</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Rayabag</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>N S C B Govt. Comp Jr. CollegeRamdurga</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S VakkundBailhongal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. Urdu/Kannada Medium High School SankeshwarHukkeri</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -595,6 +620,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S MardubagalapurBailhongal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -622,6 +652,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>New Comp. PU CollegeRaibag</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Belagum</t>
         </is>
       </c>
@@ -649,6 +684,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>S B J H S ParakanahattiHukkeri</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -676,6 +716,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>S G K High School KatkolRamdurga</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -703,6 +748,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>H V Comp PU College HarugeriRaibag</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -730,6 +780,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S MugalakhodRaibag</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Belgavi</t>
         </is>
       </c>
@@ -757,6 +812,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High School NidagundiRaibag</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -784,6 +844,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S MarikattiBailhongal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -811,6 +876,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S NipanalRaibag</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -838,6 +908,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S M C P U College ChinchaliRaibag</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Chikodi</t>
         </is>
       </c>
@@ -865,6 +940,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S A P V M KanagalaHukkeri</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -889,7 +969,8 @@
           <t>GEETA M MALLAPURMATH</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>GEETA M MALLAPURMAT</t>
         </is>
@@ -907,6 +988,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>G H S KarguppiHukkeri</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Belgaum</t>
         </is>
@@ -935,6 +1021,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S K High SchoolHukkeri</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -962,6 +1053,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>C E S High School YamakanamardiHukkeri</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Belagum</t>
         </is>
       </c>
@@ -989,6 +1085,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S K ShivapurSoundatti</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1016,6 +1117,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S BoodihalBailhongal</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1043,6 +1149,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S R D Comp PU collegeParamanandawadiRaibag</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1070,6 +1181,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S VannurBaihongal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1097,6 +1213,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>K R E C S English Medium High SchoolBailhongal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1124,6 +1245,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>New High School ItnalRaibag</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1151,6 +1277,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>D L K H S Hebbal</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1178,6 +1309,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School KochariHukkeri</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1205,6 +1341,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA) Ramdurg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1232,6 +1373,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>F D H S PachaapurHukkeri</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1259,6 +1405,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S AnigolBailhongal</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1286,6 +1437,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>S F S Comp Pre university collegesurebanRamdurg</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1313,6 +1469,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>V M H S NesaragiBailhongal</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Belgavi</t>
         </is>
       </c>
@@ -1340,6 +1501,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S KankanwadiRaibag</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1367,6 +1533,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>B S Jakati High SchoolTigadiBailhongal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1394,6 +1565,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>B N K High SchoolMugalkhodRaibag</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -1421,6 +1597,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S V G High School DodwadBailhongal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1448,6 +1629,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Akkamahadevi KanyaShale SankaeshwarHukkeri</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1475,6 +1661,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S V E S Aided High School HarugeriRaibag</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Belgavi</t>
         </is>
       </c>
@@ -1502,6 +1693,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School HosurHukkeri</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1529,6 +1725,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S HanabarahattiBailhongal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1556,6 +1757,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S Mallapur (KN) Bailhongal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1583,6 +1789,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School Naganur (K M)Hukkeri</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1610,6 +1821,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S SattigeriSavadatti</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1637,6 +1853,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Shri Ramalingeshwar High School HoskotiBailahongal</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1664,6 +1885,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Govt. High School GudasHukkeri</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chikoddi</t>
         </is>
       </c>
@@ -1691,6 +1917,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>S D H S SankeshwarHukkeri</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1718,6 +1949,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S AlagawadiRaibag</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1745,6 +1981,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>M H P S No. 4 Ramadurg</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Belgavi</t>
         </is>
       </c>
@@ -1772,6 +2013,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S ChikkabagewadiBailhongal</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1799,6 +2045,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. High School NesaragiBailhongal</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1826,6 +2077,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>S R High School UdikeriBailhongal</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1853,6 +2109,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S LakkundiBailhongal</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1880,6 +2141,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>R E S High School SampgaonBailhongal</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1906,6 +2172,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>F S Patil High School BudarakattiBailhongal</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Belagavi</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,6 @@
           <t>GEETA M MALLAPURMATH</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>GEETA M MALLAPURMAT</t>
@@ -994,7 +993,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1025,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1089,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1121,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1185,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1217,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1249,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1281,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1313,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1345,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1377,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1409,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1441,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1473,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1505,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1537,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1569,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1601,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1633,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1665,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1697,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1729,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1761,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1793,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1825,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1857,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1921,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1953,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2017,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2049,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2081,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2113,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2145,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2177,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-12-15)_53_3.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rayabag</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Belagum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chikodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Belagum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chikoddi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
